--- a/build-test/tables/battle.xlsx
+++ b/build-test/tables/battle.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Battle" sheetId="1" r:id="rId1"/>
+    <sheet name="battle" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -471,7 +471,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
